--- a/biology/Zoologie/Buthacus_nitzani/Buthacus_nitzani.xlsx
+++ b/biology/Zoologie/Buthacus_nitzani/Buthacus_nitzani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthacus nitzani est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Israël[1],[2]. Elle se rencontre du Sorek à Haluza entre 17 et 340 m d'altitude.
-Sa présence est incertaine en Égypte au Sinaï et dans la bande de Gaza[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Israël,. Elle se rencontre du Sorek à Haluza entre 17 et 340 m d'altitude.
+Sa présence est incertaine en Égypte au Sinaï et dans la bande de Gaza.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 47,4 à 58,5 mm et les femelles de 44,4 à 54,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 47,4 à 58,5 mm et les femelles de 44,4 à 54,5 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthacus leptochelys nitzani par Levy, Amitai et Shulov en 1973. Elle est élevée au rang d'espèce par Cain, Gefen et Prendini en 2021[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthacus leptochelys nitzani par Levy, Amitai et Shulov en 1973. Elle est élevée au rang d'espèce par Cain, Gefen et Prendini en 2021.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Levy, Amitai &amp; Shulov, 1973 : « New scorpions from Israel, Jordan and Arabia. » Zoological Journal of the Linnean Society, vol. 52, no 2, p. 113-140.</t>
         </is>
